--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H2">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I2">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J2">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>2.01503667872252</v>
+        <v>4.082696258807555</v>
       </c>
       <c r="R2">
-        <v>2.01503667872252</v>
+        <v>36.74426632926801</v>
       </c>
       <c r="S2">
-        <v>0.002130167466037508</v>
+        <v>0.002505645955600769</v>
       </c>
       <c r="T2">
-        <v>0.002130167466037508</v>
+        <v>0.00250564595560077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H3">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I3">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J3">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>30.60504884505274</v>
+        <v>29.13937714040845</v>
       </c>
       <c r="R3">
-        <v>30.60504884505274</v>
+        <v>262.254394263676</v>
       </c>
       <c r="S3">
-        <v>0.03235369362484824</v>
+        <v>0.01788351566028942</v>
       </c>
       <c r="T3">
-        <v>0.03235369362484824</v>
+        <v>0.01788351566028942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H4">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I4">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J4">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>27.22841443388607</v>
+        <v>28.49552032216267</v>
       </c>
       <c r="R4">
-        <v>27.22841443388607</v>
+        <v>256.459682899464</v>
       </c>
       <c r="S4">
-        <v>0.02878413241371932</v>
+        <v>0.01748836570781788</v>
       </c>
       <c r="T4">
-        <v>0.02878413241371932</v>
+        <v>0.01748836570781788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H5">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I5">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J5">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>34.01691127632511</v>
+        <v>32.56139998429111</v>
       </c>
       <c r="R5">
-        <v>34.01691127632511</v>
+        <v>293.0525998586201</v>
       </c>
       <c r="S5">
-        <v>0.03596049563814938</v>
+        <v>0.01998369092565495</v>
       </c>
       <c r="T5">
-        <v>0.03596049563814938</v>
+        <v>0.01998369092565496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H6">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I6">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J6">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>13.01172776297498</v>
+        <v>12.37006706996489</v>
       </c>
       <c r="R6">
-        <v>13.01172776297498</v>
+        <v>111.330603629684</v>
       </c>
       <c r="S6">
-        <v>0.01375516359096661</v>
+        <v>0.007591798791669254</v>
       </c>
       <c r="T6">
-        <v>0.01375516359096661</v>
+        <v>0.007591798791669254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.431762498877793</v>
+        <v>0.4082226666666667</v>
       </c>
       <c r="H7">
-        <v>0.431762498877793</v>
+        <v>1.224668</v>
       </c>
       <c r="I7">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="J7">
-        <v>0.1217387555955562</v>
+        <v>0.07055426382246109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>8.281909133371217</v>
+        <v>8.311964866081778</v>
       </c>
       <c r="R7">
-        <v>8.281909133371217</v>
+        <v>74.80768379473601</v>
       </c>
       <c r="S7">
-        <v>0.008755102861835116</v>
+        <v>0.005101246781428813</v>
       </c>
       <c r="T7">
-        <v>0.008755102861835116</v>
+        <v>0.005101246781428813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H8">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I8">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J8">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>1.532566478175691</v>
+        <v>4.559904480679333</v>
       </c>
       <c r="R8">
-        <v>1.532566478175691</v>
+        <v>41.039140326114</v>
       </c>
       <c r="S8">
-        <v>0.001620130931521914</v>
+        <v>0.002798519776065113</v>
       </c>
       <c r="T8">
-        <v>0.001620130931521914</v>
+        <v>0.002798519776065113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H9">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I9">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J9">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>23.27713059426469</v>
+        <v>32.54534943668866</v>
       </c>
       <c r="R9">
-        <v>23.27713059426469</v>
+        <v>292.908144930198</v>
       </c>
       <c r="S9">
-        <v>0.02460708870373716</v>
+        <v>0.01997384033008383</v>
       </c>
       <c r="T9">
-        <v>0.02460708870373716</v>
+        <v>0.01997384033008383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H10">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I10">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J10">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>20.70898046466541</v>
+        <v>31.826235056308</v>
       </c>
       <c r="R10">
-        <v>20.70898046466541</v>
+        <v>286.436115506772</v>
       </c>
       <c r="S10">
-        <v>0.02189220519231612</v>
+        <v>0.01953250305574507</v>
       </c>
       <c r="T10">
-        <v>0.02189220519231612</v>
+        <v>0.01953250305574507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H11">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I11">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J11">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>25.87207392483971</v>
+        <v>36.36735732305667</v>
       </c>
       <c r="R11">
-        <v>25.87207392483971</v>
+        <v>327.30621590751</v>
       </c>
       <c r="S11">
-        <v>0.02735029626783288</v>
+        <v>0.02231949574887545</v>
       </c>
       <c r="T11">
-        <v>0.02735029626783288</v>
+        <v>0.02231949574887545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H12">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I12">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J12">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>9.896265414546054</v>
+        <v>13.81594923623133</v>
       </c>
       <c r="R12">
-        <v>9.896265414546054</v>
+        <v>124.343543126082</v>
       </c>
       <c r="S12">
-        <v>0.01046169672440047</v>
+        <v>0.0084791704138822</v>
       </c>
       <c r="T12">
-        <v>0.01046169672440047</v>
+        <v>0.0084791704138822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.328383467805151</v>
+        <v>0.455938</v>
       </c>
       <c r="H13">
-        <v>0.328383467805151</v>
+        <v>1.367814</v>
       </c>
       <c r="I13">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="J13">
-        <v>0.09259024309118527</v>
+        <v>0.07880103817202358</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>6.298930658249146</v>
+        <v>9.283513500258666</v>
       </c>
       <c r="R13">
-        <v>6.298930658249146</v>
+        <v>83.55162150232799</v>
       </c>
       <c r="S13">
-        <v>0.006658825271376735</v>
+        <v>0.005697508847371914</v>
       </c>
       <c r="T13">
-        <v>0.006658825271376735</v>
+        <v>0.005697508847371914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H14">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I14">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J14">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>13.00453481153092</v>
+        <v>3.923581290721</v>
       </c>
       <c r="R14">
-        <v>13.00453481153092</v>
+        <v>35.312231616489</v>
       </c>
       <c r="S14">
-        <v>0.01374755966429238</v>
+        <v>0.002407993387055768</v>
       </c>
       <c r="T14">
-        <v>0.01374755966429238</v>
+        <v>0.002407993387055768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H15">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I15">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J15">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>197.5172101415131</v>
+        <v>28.003727861147</v>
       </c>
       <c r="R15">
-        <v>197.5172101415131</v>
+        <v>252.033550750323</v>
       </c>
       <c r="S15">
-        <v>0.2088025193132892</v>
+        <v>0.01718654119949681</v>
       </c>
       <c r="T15">
-        <v>0.2088025193132892</v>
+        <v>0.01718654119949681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H16">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I16">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J16">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>175.7252694738778</v>
+        <v>27.384964082058</v>
       </c>
       <c r="R16">
-        <v>175.7252694738778</v>
+        <v>246.464676738522</v>
       </c>
       <c r="S16">
-        <v>0.1857654780910689</v>
+        <v>0.01680679143065179</v>
       </c>
       <c r="T16">
-        <v>0.1857654780910689</v>
+        <v>0.01680679143065179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H17">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I17">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J17">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>219.5365035013567</v>
+        <v>31.292384169515</v>
       </c>
       <c r="R17">
-        <v>219.5365035013567</v>
+        <v>281.631457525635</v>
       </c>
       <c r="S17">
-        <v>0.2320799032118349</v>
+        <v>0.01920486631017501</v>
       </c>
       <c r="T17">
-        <v>0.2320799032118349</v>
+        <v>0.01920486631017502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.7864854800209</v>
+        <v>0.392313</v>
       </c>
       <c r="H18">
-        <v>2.7864854800209</v>
+        <v>1.176939</v>
       </c>
       <c r="I18">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="J18">
-        <v>0.7856710013132586</v>
+        <v>0.06780455168988127</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>83.97438539880429</v>
+        <v>11.887968304273</v>
       </c>
       <c r="R18">
-        <v>83.97438539880429</v>
+        <v>106.991714738457</v>
       </c>
       <c r="S18">
-        <v>0.08877233136541859</v>
+        <v>0.007295923530351424</v>
       </c>
       <c r="T18">
-        <v>0.08877233136541859</v>
+        <v>0.007295923530351424</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.392313</v>
+      </c>
+      <c r="H19">
+        <v>1.176939</v>
+      </c>
+      <c r="I19">
+        <v>0.06780455168988127</v>
+      </c>
+      <c r="J19">
+        <v>0.06780455168988127</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N19">
+        <v>61.084052</v>
+      </c>
+      <c r="O19">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P19">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q19">
+        <v>7.988022564092</v>
+      </c>
+      <c r="R19">
+        <v>71.892203076828</v>
+      </c>
+      <c r="S19">
+        <v>0.004902435832150463</v>
+      </c>
+      <c r="T19">
+        <v>0.004902435832150463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.572636</v>
+      </c>
+      <c r="I20">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J20">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N20">
+        <v>30.003451</v>
+      </c>
+      <c r="O20">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P20">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q20">
+        <v>1.909006240759556</v>
+      </c>
+      <c r="R20">
+        <v>17.181056166836</v>
+      </c>
+      <c r="S20">
+        <v>0.001171601672805529</v>
+      </c>
+      <c r="T20">
+        <v>0.001171601672805529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.572636</v>
+      </c>
+      <c r="I21">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J21">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N21">
+        <v>214.143257</v>
+      </c>
+      <c r="O21">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P21">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q21">
+        <v>13.62512645727244</v>
+      </c>
+      <c r="R21">
+        <v>122.626138115452</v>
+      </c>
+      <c r="S21">
+        <v>0.008362058021966351</v>
+      </c>
+      <c r="T21">
+        <v>0.008362058021966353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.572636</v>
+      </c>
+      <c r="I22">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J22">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>69.803866</v>
+      </c>
+      <c r="N22">
+        <v>209.411598</v>
+      </c>
+      <c r="O22">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P22">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q22">
+        <v>13.32406887025867</v>
+      </c>
+      <c r="R22">
+        <v>119.916619832328</v>
+      </c>
+      <c r="S22">
+        <v>0.008177291956237934</v>
+      </c>
+      <c r="T22">
+        <v>0.008177291956237936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.572636</v>
+      </c>
+      <c r="I23">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J23">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N23">
+        <v>239.291465</v>
+      </c>
+      <c r="O23">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P23">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q23">
+        <v>15.22521192797111</v>
+      </c>
+      <c r="R23">
+        <v>137.02690735174</v>
+      </c>
+      <c r="S23">
+        <v>0.009344067810135767</v>
+      </c>
+      <c r="T23">
+        <v>0.009344067810135769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.572636</v>
+      </c>
+      <c r="I24">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J24">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N24">
+        <v>90.906763</v>
+      </c>
+      <c r="O24">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P24">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q24">
+        <v>5.784053904140889</v>
+      </c>
+      <c r="R24">
+        <v>52.05648513726801</v>
+      </c>
+      <c r="S24">
+        <v>0.003549808840327594</v>
+      </c>
+      <c r="T24">
+        <v>0.003549808840327594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1908786666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.572636</v>
+      </c>
+      <c r="I25">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="J25">
+        <v>0.03299009316666952</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N25">
+        <v>61.084052</v>
+      </c>
+      <c r="O25">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P25">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q25">
+        <v>3.886547466785778</v>
+      </c>
+      <c r="R25">
+        <v>34.978927201072</v>
+      </c>
+      <c r="S25">
+        <v>0.002385264865196338</v>
+      </c>
+      <c r="T25">
+        <v>0.002385264865196338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H26">
+        <v>13.01576</v>
+      </c>
+      <c r="I26">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J26">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N26">
+        <v>30.003451</v>
+      </c>
+      <c r="O26">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P26">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q26">
+        <v>43.39085748752889</v>
+      </c>
+      <c r="R26">
+        <v>390.5177173877601</v>
+      </c>
+      <c r="S26">
+        <v>0.02662998167917368</v>
+      </c>
+      <c r="T26">
+        <v>0.02662998167917368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H27">
+        <v>13.01576</v>
+      </c>
+      <c r="I27">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J27">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N27">
+        <v>214.143257</v>
+      </c>
+      <c r="O27">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P27">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q27">
+        <v>309.6930265255911</v>
+      </c>
+      <c r="R27">
+        <v>2787.23723873032</v>
+      </c>
+      <c r="S27">
+        <v>0.1900658364475666</v>
+      </c>
+      <c r="T27">
+        <v>0.1900658364475667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.7864854800209</v>
-      </c>
-      <c r="H19">
-        <v>2.7864854800209</v>
-      </c>
-      <c r="I19">
-        <v>0.7856710013132586</v>
-      </c>
-      <c r="J19">
-        <v>0.7856710013132586</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="N19">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="O19">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="P19">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="Q19">
-        <v>53.44933755704257</v>
-      </c>
-      <c r="R19">
-        <v>53.44933755704257</v>
-      </c>
-      <c r="S19">
-        <v>0.0565032096673548</v>
-      </c>
-      <c r="T19">
-        <v>0.0565032096673548</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H28">
+        <v>13.01576</v>
+      </c>
+      <c r="I28">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J28">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>69.803866</v>
+      </c>
+      <c r="N28">
+        <v>209.411598</v>
+      </c>
+      <c r="O28">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P28">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q28">
+        <v>302.8501223093867</v>
+      </c>
+      <c r="R28">
+        <v>2725.65110078448</v>
+      </c>
+      <c r="S28">
+        <v>0.1858661864645665</v>
+      </c>
+      <c r="T28">
+        <v>0.1858661864645664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H29">
+        <v>13.01576</v>
+      </c>
+      <c r="I29">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J29">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N29">
+        <v>239.291465</v>
+      </c>
+      <c r="O29">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P29">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q29">
+        <v>346.0622531653779</v>
+      </c>
+      <c r="R29">
+        <v>3114.5602784884</v>
+      </c>
+      <c r="S29">
+        <v>0.2123864794397361</v>
+      </c>
+      <c r="T29">
+        <v>0.2123864794397361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H30">
+        <v>13.01576</v>
+      </c>
+      <c r="I30">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J30">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N30">
+        <v>90.906763</v>
+      </c>
+      <c r="O30">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P30">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q30">
+        <v>131.4689566205422</v>
+      </c>
+      <c r="R30">
+        <v>1183.22060958488</v>
+      </c>
+      <c r="S30">
+        <v>0.08068556624379587</v>
+      </c>
+      <c r="T30">
+        <v>0.08068556624379586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.338586666666667</v>
+      </c>
+      <c r="H31">
+        <v>13.01576</v>
+      </c>
+      <c r="I31">
+        <v>0.7498500531489646</v>
+      </c>
+      <c r="J31">
+        <v>0.7498500531489645</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N31">
+        <v>61.084052</v>
+      </c>
+      <c r="O31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q31">
+        <v>88.33948451772446</v>
+      </c>
+      <c r="R31">
+        <v>795.05536065952</v>
+      </c>
+      <c r="S31">
+        <v>0.05421600287412578</v>
+      </c>
+      <c r="T31">
+        <v>0.05421600287412578</v>
       </c>
     </row>
   </sheetData>
